--- a/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
+++ b/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -361,7 +361,7 @@
         </is>
       </c>
       <c r="B16" s="65">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         </is>
       </c>
       <c r="B18" s="65">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B65" s="65">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B66" s="65">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
